--- a/xlsx/country_comparison/conjoint_r_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_r_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,49 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">F-1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-1-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-2-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-2-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F-1-2-5</t>
+    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
   </si>
 </sst>
 </file>
@@ -437,344 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.533925920664392</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.506245447687487</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.464648213495476</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.538620944501814</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.604991302855216</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.798819234152629</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.746458028043989</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.784307334910175</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.720186110485334</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.776948810512619</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.734842464041904</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.790764894653691</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.771507135509373</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.811528290131666</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.744537616758771</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.817054040149089</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.798158982455997</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.769970289651279</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.75660014064273</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.738810134007182</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.737103767479644</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.771913477266342</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.812521482705165</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.781328915483985</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.784533721424847</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.790019511254357</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.775971768832005</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.794689322959127</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.784061810203092</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.772992329359347</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.742005949451308</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.754965908069497</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.742853304394625</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.721499295394856</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.729623292836873</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.78578480114671</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.769902692998333</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.767554786658026</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.773334612776606</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.759572975430559</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.781086203386262</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.774893764066632</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.778636575884586</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.775329513478269</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.751379349902388</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.788694236921056</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.780825347185965</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.791135662145684</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.758742963401782</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.771218787592807</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.729914734946151</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.778129948278013</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.75012828508853</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.763316364570237</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.763423339127248</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.783142744911866</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.749633666395855</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.761798678255396</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.779178517811461</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.780364149092194</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.75941232546073</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.756026301055847</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.738835206587158</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.766337246276176</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.802862820945916</v>
+        <v>0.574542866003825</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_r_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_r_positive.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533925920664392</v>
+        <v>0.469348959719292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.506245447687487</v>
+        <v>0.52797712148325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.464648213495476</v>
+        <v>0.575459154996921</v>
       </c>
       <c r="E2" t="n">
-        <v>0.538620944501814</v>
+        <v>0.508831293471374</v>
       </c>
       <c r="F2" t="n">
-        <v>0.604991302855216</v>
+        <v>0.501818808151066</v>
       </c>
       <c r="G2" t="n">
-        <v>0.574542866003825</v>
+        <v>0.518554917937033</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_r_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_r_positive.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.469348959719292</v>
+        <v>0.538443468264634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52797712148325</v>
+        <v>0.541187502351268</v>
       </c>
       <c r="D2" t="n">
-        <v>0.575459154996921</v>
+        <v>0.503715145711722</v>
       </c>
       <c r="E2" t="n">
-        <v>0.508831293471374</v>
+        <v>0.54919037812932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.501818808151066</v>
+        <v>0.565602121213899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.518554917937033</v>
+        <v>0.616625727793589</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_r_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_r_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,7 +35,49 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
+    <t xml:space="preserve">F-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1-2-5</t>
   </si>
 </sst>
 </file>
@@ -395,22 +437,344 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.538443468264634</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.541187502351268</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.503715145711722</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.54919037812932</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.565602121213899</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.616625727793589</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.796462566236184</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.761162456035065</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.776468943154629</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.760159187673011</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.776246961199643</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.756304619737785</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.78979548050377</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.770234081670858</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.796098744070677</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.762022244535001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.806001182234135</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.759690769537102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.779482448120559</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.762205801814784</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.738753039422691</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.752515758014553</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.769238881734919</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.801157214767475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.781547690449031</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.783624114646769</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.785946421906938</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.778647564067442</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.798517111721116</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.770073650252594</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.781503105752127</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.748754466948699</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.755662801348899</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.755497933627111</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.747040549569475</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.734432066111238</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.783632206565823</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.770016636384673</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.777784566106508</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.773440126237838</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.737969812681337</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.766024644556867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.786101136462517</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.780146253408879</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.789415011594389</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.771773040432768</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.782348131405109</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.777454981201537</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.786329951798791</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.766609013674627</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.778709020547154</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.752863610145</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.772241798408082</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.76724181421148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.768590261596743</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.767681340638456</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.779432234354022</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.748614152246235</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.750615763169113</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.783582322954827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.782506333729121</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.760351957439602</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.748024875337523</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.753916989764952</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.760931132306956</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.784449827555215</v>
       </c>
     </row>
   </sheetData>
